--- a/MacroTrend/SAVE/SAVE_A.xlsx
+++ b/MacroTrend/SAVE/SAVE_A.xlsx
@@ -913,62 +913,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5068.447</v>
+        <v>5362.549</v>
       </c>
       <c r="C2" t="n">
-        <v>1929.969</v>
+        <v>1821.165</v>
       </c>
       <c r="D2" t="n">
-        <v>3138.478</v>
+        <v>3541.384</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1963.87</v>
+        <v>2439.295</v>
       </c>
       <c r="G2" t="n">
-        <v>-1178.007</v>
+        <v>-895.735</v>
       </c>
       <c r="H2" t="n">
-        <v>3737.395</v>
+        <v>4037.141</v>
       </c>
       <c r="I2" t="n">
-        <v>-598.918</v>
+        <v>-495.757</v>
       </c>
       <c r="J2" t="n">
-        <v>-101.822</v>
+        <v>-62.838</v>
       </c>
       <c r="K2" t="n">
-        <v>-700.739</v>
+        <v>-558.595</v>
       </c>
       <c r="L2" t="n">
-        <v>-146.589</v>
+        <v>-111.131</v>
       </c>
       <c r="M2" t="n">
-        <v>-554.15</v>
+        <v>-447.464</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-554.15</v>
+        <v>-447.464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-554.15</v>
+        <v>-447.464</v>
       </c>
       <c r="R2" t="n">
-        <v>-258.398</v>
+        <v>-151.286</v>
       </c>
       <c r="S2" t="n">
-        <v>-598.918</v>
+        <v>-495.757</v>
       </c>
       <c r="T2" t="n">
         <v>109</v>
@@ -977,31 +977,31 @@
         <v>109</v>
       </c>
       <c r="V2" t="n">
-        <v>-5.1</v>
+        <v>-4.1</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.1</v>
+        <v>-4.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.857</v>
+        <v>1097.112</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.537</v>
+        <v>205.468</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.589</v>
+        <v>209.547</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1993.983</v>
+        <v>1512.127</v>
       </c>
       <c r="AD2" t="n">
-        <v>3749.498</v>
+        <v>3519.128</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1010,79 +1010,79 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>551.37</v>
+        <v>511.449</v>
       </c>
       <c r="AH2" t="n">
-        <v>7190.791</v>
+        <v>7905.11</v>
       </c>
       <c r="AI2" t="n">
-        <v>9184.773999999999</v>
+        <v>9417.236999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1596.581</v>
+        <v>1671.592</v>
       </c>
       <c r="AK2" t="n">
-        <v>3200.376</v>
+        <v>3055.221</v>
       </c>
       <c r="AL2" t="n">
-        <v>133.704</v>
+        <v>149.45</v>
       </c>
       <c r="AM2" t="n">
-        <v>6016.542</v>
+        <v>6611.303</v>
       </c>
       <c r="AN2" t="n">
-        <v>7613.123</v>
+        <v>8282.895</v>
       </c>
       <c r="AO2" t="n">
         <v>0.011</v>
       </c>
       <c r="AP2" t="n">
-        <v>504.219</v>
+        <v>56.755</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.596</v>
+        <v>-0.067</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1571.651</v>
+        <v>1134.342</v>
       </c>
       <c r="AT2" t="n">
-        <v>9184.773999999999</v>
+        <v>9417.236999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>-554.15</v>
+        <v>-447.464</v>
       </c>
       <c r="AV2" t="n">
-        <v>340.52</v>
+        <v>344.471</v>
       </c>
       <c r="AW2" t="n">
-        <v>244.699</v>
+        <v>-68.627</v>
       </c>
       <c r="AX2" t="n">
-        <v>585.2190000000001</v>
+        <v>275.844</v>
       </c>
       <c r="AY2" t="n">
-        <v>-68.34</v>
+        <v>-8.351000000000001</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.032</v>
+        <v>-34.051</v>
       </c>
       <c r="BB2" t="n">
-        <v>-62.412</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="BC2" t="n">
-        <v>-120.091</v>
+        <v>-75.041</v>
       </c>
       <c r="BD2" t="n">
-        <v>-89.02200000000001</v>
+        <v>-246.661</v>
       </c>
       <c r="BE2" t="n">
-        <v>-246.084</v>
+        <v>-12.591</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1094,203 +1094,203 @@
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.19</v>
+        <v>-2.057</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.19</v>
+        <v>-2.057</v>
       </c>
       <c r="BK2" t="n">
-        <v>-18.166</v>
+        <v>-21.86</v>
       </c>
       <c r="BL2" t="n">
-        <v>-265.44</v>
+        <v>-36.508</v>
       </c>
       <c r="BM2" t="n">
-        <v>397.125</v>
+        <v>119.979</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>397.125</v>
+        <v>119.979</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.359</v>
+        <v>-2.637</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-2.359</v>
+        <v>-2.637</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>-3.469</v>
+        <v>-315.304</v>
       </c>
       <c r="BT2" t="n">
-        <v>391.297</v>
+        <v>-197.962</v>
       </c>
       <c r="BU2" t="n">
-        <v>36.835</v>
+        <v>-481.131</v>
       </c>
       <c r="BV2" t="n">
-        <v>11.483</v>
+        <v>11.963</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.2489</v>
+        <v>0.9046</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6707</v>
+        <v>0.7292</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.257</v>
+        <v>2.9716</v>
       </c>
       <c r="CA2" t="n">
-        <v>61.9219</v>
+        <v>66.03919999999999</v>
       </c>
       <c r="CB2" t="n">
-        <v>-11.8166</v>
+        <v>-9.2448</v>
       </c>
       <c r="CC2" t="n">
-        <v>-11.8166</v>
+        <v>-9.2448</v>
       </c>
       <c r="CD2" t="n">
-        <v>-5.0982</v>
+        <v>-2.8212</v>
       </c>
       <c r="CE2" t="n">
-        <v>-13.8255</v>
+        <v>-10.4166</v>
       </c>
       <c r="CF2" t="n">
-        <v>-10.9333</v>
+        <v>-8.344200000000001</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.5518</v>
+        <v>0.5694</v>
       </c>
       <c r="CH2" t="n">
         <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>21.703</v>
+        <v>26.0992</v>
       </c>
       <c r="CJ2" t="n">
-        <v>16.818</v>
+        <v>13.9851</v>
       </c>
       <c r="CK2" t="n">
-        <v>-35.2591</v>
+        <v>-39.447</v>
       </c>
       <c r="CL2" t="n">
-        <v>-35.2591</v>
+        <v>-39.447</v>
       </c>
       <c r="CM2" t="n">
-        <v>-6.0334</v>
+        <v>-4.7515</v>
       </c>
       <c r="CN2" t="n">
-        <v>-11.6125</v>
+        <v>-10.6805</v>
       </c>
       <c r="CO2" t="n">
-        <v>14.4265</v>
+        <v>10.3818</v>
       </c>
       <c r="CP2" t="n">
-        <v>-2.808</v>
+        <v>-1.4412</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.8868</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3230.775</v>
+        <v>5068.447</v>
       </c>
       <c r="C3" t="n">
-        <v>913.9450000000001</v>
+        <v>1929.969</v>
       </c>
       <c r="D3" t="n">
-        <v>2316.83</v>
+        <v>3138.478</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1673.461</v>
+        <v>1963.87</v>
       </c>
       <c r="G3" t="n">
-        <v>-156.431</v>
+        <v>-1178.007</v>
       </c>
       <c r="H3" t="n">
-        <v>2373.704</v>
+        <v>3737.395</v>
       </c>
       <c r="I3" t="n">
-        <v>-56.874</v>
+        <v>-598.918</v>
       </c>
       <c r="J3" t="n">
-        <v>-463.446</v>
+        <v>-101.822</v>
       </c>
       <c r="K3" t="n">
-        <v>-520.3200000000001</v>
+        <v>-700.739</v>
       </c>
       <c r="L3" t="n">
-        <v>-47.751</v>
+        <v>-146.589</v>
       </c>
       <c r="M3" t="n">
-        <v>-472.569</v>
+        <v>-554.15</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-472.569</v>
+        <v>-554.15</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-472.569</v>
+        <v>-554.15</v>
       </c>
       <c r="R3" t="n">
-        <v>253.249</v>
+        <v>-258.398</v>
       </c>
       <c r="S3" t="n">
-        <v>-56.874</v>
+        <v>-598.918</v>
       </c>
       <c r="T3" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U3" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.5</v>
+        <v>-5.1</v>
       </c>
       <c r="W3" t="n">
-        <v>-4.5</v>
+        <v>-5.1</v>
       </c>
       <c r="X3" t="n">
-        <v>1535.22</v>
+        <v>1572.857</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.718</v>
+        <v>233.537</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.553</v>
+        <v>187.589</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1842.491</v>
+        <v>1993.983</v>
       </c>
       <c r="AD3" t="n">
-        <v>3856.593</v>
+        <v>3749.498</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1299,79 +1299,79 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>560.359</v>
+        <v>551.37</v>
       </c>
       <c r="AH3" t="n">
-        <v>6697.534</v>
+        <v>7190.791</v>
       </c>
       <c r="AI3" t="n">
-        <v>8540.025</v>
+        <v>9184.773999999999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1275.602</v>
+        <v>1596.581</v>
       </c>
       <c r="AK3" t="n">
-        <v>2975.823</v>
+        <v>3200.376</v>
       </c>
       <c r="AL3" t="n">
-        <v>47.742</v>
+        <v>133.704</v>
       </c>
       <c r="AM3" t="n">
-        <v>5150.388</v>
+        <v>6016.542</v>
       </c>
       <c r="AN3" t="n">
-        <v>6425.99</v>
+        <v>7613.123</v>
       </c>
       <c r="AO3" t="n">
         <v>0.011</v>
       </c>
       <c r="AP3" t="n">
-        <v>1058.369</v>
+        <v>504.219</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.532</v>
+        <v>-0.596</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2114.035</v>
+        <v>1571.651</v>
       </c>
       <c r="AT3" t="n">
-        <v>8540.025</v>
+        <v>9184.773999999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>-472.569</v>
+        <v>-554.15</v>
       </c>
       <c r="AV3" t="n">
-        <v>310.123</v>
+        <v>340.52</v>
       </c>
       <c r="AW3" t="n">
-        <v>299.394</v>
+        <v>244.699</v>
       </c>
       <c r="AX3" t="n">
-        <v>609.5170000000001</v>
+        <v>585.2190000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>-85.8</v>
+        <v>-68.34</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>13.057</v>
+        <v>9.032</v>
       </c>
       <c r="BB3" t="n">
-        <v>34.957</v>
+        <v>-62.412</v>
       </c>
       <c r="BC3" t="n">
-        <v>71.94</v>
+        <v>-120.091</v>
       </c>
       <c r="BD3" t="n">
-        <v>208.888</v>
+        <v>-89.02200000000001</v>
       </c>
       <c r="BE3" t="n">
-        <v>-334.326</v>
+        <v>-246.084</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1383,203 +1383,203 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.861</v>
+        <v>-1.19</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.861</v>
+        <v>-1.19</v>
       </c>
       <c r="BK3" t="n">
-        <v>-17.258</v>
+        <v>-18.166</v>
       </c>
       <c r="BL3" t="n">
-        <v>-352.445</v>
+        <v>-265.44</v>
       </c>
       <c r="BM3" t="n">
-        <v>-343.123</v>
+        <v>397.125</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-343.123</v>
+        <v>397.125</v>
       </c>
       <c r="BP3" t="n">
-        <v>374.147</v>
+        <v>-2.359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>374.147</v>
+        <v>-2.359</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-319.684</v>
+        <v>-3.469</v>
       </c>
       <c r="BT3" t="n">
-        <v>-288.66</v>
+        <v>391.297</v>
       </c>
       <c r="BU3" t="n">
-        <v>-432.217</v>
+        <v>36.835</v>
       </c>
       <c r="BV3" t="n">
-        <v>12.536</v>
+        <v>11.483</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.4444</v>
+        <v>1.2489</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.5847</v>
+        <v>0.6707</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.5065</v>
+        <v>2.257</v>
       </c>
       <c r="CA3" t="n">
-        <v>71.71129999999999</v>
+        <v>61.9219</v>
       </c>
       <c r="CB3" t="n">
-        <v>-1.7604</v>
+        <v>-11.8166</v>
       </c>
       <c r="CC3" t="n">
-        <v>-1.7604</v>
+        <v>-11.8166</v>
       </c>
       <c r="CD3" t="n">
-        <v>7.8386</v>
+        <v>-5.0982</v>
       </c>
       <c r="CE3" t="n">
-        <v>-16.1051</v>
+        <v>-13.8255</v>
       </c>
       <c r="CF3" t="n">
-        <v>-14.6271</v>
+        <v>-10.9333</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.3783</v>
+        <v>0.5518</v>
       </c>
       <c r="CH3" t="n">
         <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>19.3787</v>
+        <v>21.703</v>
       </c>
       <c r="CJ3" t="n">
-        <v>18.8351</v>
+        <v>16.818</v>
       </c>
       <c r="CK3" t="n">
-        <v>-22.3539</v>
+        <v>-35.2591</v>
       </c>
       <c r="CL3" t="n">
-        <v>-22.3539</v>
+        <v>-35.2591</v>
       </c>
       <c r="CM3" t="n">
-        <v>-5.5336</v>
+        <v>-6.0334</v>
       </c>
       <c r="CN3" t="n">
-        <v>-9.2845</v>
+        <v>-11.6125</v>
       </c>
       <c r="CO3" t="n">
-        <v>19.4968</v>
+        <v>14.4265</v>
       </c>
       <c r="CP3" t="n">
-        <v>4.6493</v>
+        <v>-2.808</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7.8477</v>
+        <v>-1.8868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1810.022</v>
+        <v>3230.775</v>
       </c>
       <c r="C4" t="n">
-        <v>431</v>
+        <v>913.9450000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1379.022</v>
+        <v>2316.83</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1357.148</v>
+        <v>1673.461</v>
       </c>
       <c r="G4" t="n">
-        <v>-54.689</v>
+        <v>-156.431</v>
       </c>
       <c r="H4" t="n">
-        <v>1886.784</v>
+        <v>2373.704</v>
       </c>
       <c r="I4" t="n">
-        <v>-507.762</v>
+        <v>-56.874</v>
       </c>
       <c r="J4" t="n">
-        <v>-112.422</v>
+        <v>-463.446</v>
       </c>
       <c r="K4" t="n">
-        <v>-620.184</v>
+        <v>-520.3200000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-191.484</v>
+        <v>-47.751</v>
       </c>
       <c r="M4" t="n">
-        <v>-428.7</v>
+        <v>-472.569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-428.7</v>
+        <v>-472.569</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-428.7</v>
+        <v>-472.569</v>
       </c>
       <c r="R4" t="n">
-        <v>-218.422</v>
+        <v>253.249</v>
       </c>
       <c r="S4" t="n">
-        <v>-507.762</v>
+        <v>-56.874</v>
       </c>
       <c r="T4" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="U4" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V4" t="n">
-        <v>-5.06</v>
+        <v>-4.5</v>
       </c>
       <c r="W4" t="n">
-        <v>-5.06</v>
+        <v>-4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1967.463</v>
+        <v>1535.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.4</v>
+        <v>166.718</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.983</v>
+        <v>140.553</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.134</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2355.98</v>
+        <v>1842.491</v>
       </c>
       <c r="AD4" t="n">
-        <v>3831.568</v>
+        <v>3856.593</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1588,79 +1588,79 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>445.547</v>
+        <v>560.359</v>
       </c>
       <c r="AH4" t="n">
-        <v>6042.845</v>
+        <v>6697.534</v>
       </c>
       <c r="AI4" t="n">
-        <v>8398.825000000001</v>
+        <v>8540.025</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1342.022</v>
+        <v>1275.602</v>
       </c>
       <c r="AK4" t="n">
-        <v>3066.635</v>
+        <v>2975.823</v>
       </c>
       <c r="AL4" t="n">
-        <v>52.06</v>
+        <v>47.742</v>
       </c>
       <c r="AM4" t="n">
-        <v>4807.108</v>
+        <v>5150.388</v>
       </c>
       <c r="AN4" t="n">
-        <v>6149.13</v>
+        <v>6425.99</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AP4" t="n">
-        <v>1524.878</v>
+        <v>1058.369</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.618</v>
+        <v>-0.532</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2249.695</v>
+        <v>2114.035</v>
       </c>
       <c r="AT4" t="n">
-        <v>8398.825000000001</v>
+        <v>8540.025</v>
       </c>
       <c r="AU4" t="n">
-        <v>-428.7</v>
+        <v>-472.569</v>
       </c>
       <c r="AV4" t="n">
-        <v>289.34</v>
+        <v>310.123</v>
       </c>
       <c r="AW4" t="n">
-        <v>-22.106</v>
+        <v>299.394</v>
       </c>
       <c r="AX4" t="n">
-        <v>267.234</v>
+        <v>609.5170000000001</v>
       </c>
       <c r="AY4" t="n">
-        <v>30.486</v>
+        <v>-85.8</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-17.052</v>
+        <v>13.057</v>
       </c>
       <c r="BB4" t="n">
-        <v>49.428</v>
+        <v>34.957</v>
       </c>
       <c r="BC4" t="n">
-        <v>-63.808</v>
+        <v>71.94</v>
       </c>
       <c r="BD4" t="n">
-        <v>-225.274</v>
+        <v>208.888</v>
       </c>
       <c r="BE4" t="n">
-        <v>-540.539</v>
+        <v>-334.326</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -1672,203 +1672,203 @@
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1.228</v>
+        <v>-0.861</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-1.228</v>
+        <v>-0.861</v>
       </c>
       <c r="BK4" t="n">
-        <v>-12.233</v>
+        <v>-17.258</v>
       </c>
       <c r="BL4" t="n">
-        <v>-554</v>
+        <v>-352.445</v>
       </c>
       <c r="BM4" t="n">
-        <v>1332.686</v>
+        <v>-343.123</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>1332.686</v>
+        <v>-343.123</v>
       </c>
       <c r="BP4" t="n">
-        <v>365.153</v>
+        <v>374.147</v>
       </c>
       <c r="BQ4" t="n">
-        <v>365.153</v>
+        <v>374.147</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-36.398</v>
+        <v>-319.684</v>
       </c>
       <c r="BT4" t="n">
-        <v>1661.441</v>
+        <v>-288.66</v>
       </c>
       <c r="BU4" t="n">
-        <v>882.167</v>
+        <v>-432.217</v>
       </c>
       <c r="BV4" t="n">
-        <v>11.575</v>
+        <v>12.536</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.7555</v>
+        <v>1.4444</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.5768</v>
+        <v>0.5847</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.5339</v>
+        <v>1.5065</v>
       </c>
       <c r="CA4" t="n">
-        <v>76.18810000000001</v>
+        <v>71.71129999999999</v>
       </c>
       <c r="CB4" t="n">
-        <v>-28.0528</v>
+        <v>-1.7604</v>
       </c>
       <c r="CC4" t="n">
-        <v>-28.0528</v>
+        <v>-1.7604</v>
       </c>
       <c r="CD4" t="n">
-        <v>-12.0674</v>
+        <v>7.8386</v>
       </c>
       <c r="CE4" t="n">
-        <v>-34.2639</v>
+        <v>-16.1051</v>
       </c>
       <c r="CF4" t="n">
-        <v>-23.6848</v>
+        <v>-14.6271</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.2155</v>
+        <v>0.3783</v>
       </c>
       <c r="CH4" t="n">
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>9.506399999999999</v>
+        <v>19.3787</v>
       </c>
       <c r="CJ4" t="n">
-        <v>38.3951</v>
+        <v>18.8351</v>
       </c>
       <c r="CK4" t="n">
-        <v>-19.0559</v>
+        <v>-22.3539</v>
       </c>
       <c r="CL4" t="n">
-        <v>-19.0559</v>
+        <v>-22.3539</v>
       </c>
       <c r="CM4" t="n">
-        <v>-5.1043</v>
+        <v>-5.5336</v>
       </c>
       <c r="CN4" t="n">
-        <v>-8.063800000000001</v>
+        <v>-9.2845</v>
       </c>
       <c r="CO4" t="n">
-        <v>23.0289</v>
+        <v>19.4968</v>
       </c>
       <c r="CP4" t="n">
-        <v>-10.7015</v>
+        <v>4.6493</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-10.5993</v>
+        <v>7.8477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3830.536</v>
+        <v>1810.022</v>
       </c>
       <c r="C5" t="n">
-        <v>993.478</v>
+        <v>431</v>
       </c>
       <c r="D5" t="n">
-        <v>2837.058</v>
+        <v>1379.022</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1418.639</v>
+        <v>1357.148</v>
       </c>
       <c r="G5" t="n">
-        <v>-509.499</v>
+        <v>-54.689</v>
       </c>
       <c r="H5" t="n">
-        <v>2336.011</v>
+        <v>1886.784</v>
       </c>
       <c r="I5" t="n">
-        <v>501.047</v>
+        <v>-507.762</v>
       </c>
       <c r="J5" t="n">
-        <v>-64.621</v>
+        <v>-112.422</v>
       </c>
       <c r="K5" t="n">
-        <v>436.426</v>
+        <v>-620.184</v>
       </c>
       <c r="L5" t="n">
-        <v>101.171</v>
+        <v>-191.484</v>
       </c>
       <c r="M5" t="n">
-        <v>335.255</v>
+        <v>-428.7</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>335.255</v>
+        <v>-428.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>335.255</v>
+        <v>-428.7</v>
       </c>
       <c r="R5" t="n">
-        <v>734.965</v>
+        <v>-218.422</v>
       </c>
       <c r="S5" t="n">
-        <v>501.047</v>
+        <v>-507.762</v>
       </c>
       <c r="T5" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="U5" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="V5" t="n">
-        <v>4.9</v>
+        <v>-5.06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.89</v>
+        <v>-5.06</v>
       </c>
       <c r="X5" t="n">
-        <v>1084.278</v>
+        <v>1967.463</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.81999999999999</v>
+        <v>190.4</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.439</v>
+        <v>124.983</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.906</v>
+        <v>73.134</v>
       </c>
       <c r="AC5" t="n">
-        <v>1385.443</v>
+        <v>2355.98</v>
       </c>
       <c r="AD5" t="n">
-        <v>3530.302</v>
+        <v>3831.568</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1877,79 +1877,79 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>396.509</v>
+        <v>445.547</v>
       </c>
       <c r="AH5" t="n">
-        <v>5657.969</v>
+        <v>6042.845</v>
       </c>
       <c r="AI5" t="n">
-        <v>7043.412</v>
+        <v>8398.825000000001</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1112.044</v>
+        <v>1342.022</v>
       </c>
       <c r="AK5" t="n">
-        <v>1960.453</v>
+        <v>3066.635</v>
       </c>
       <c r="AL5" t="n">
-        <v>22.277</v>
+        <v>52.06</v>
       </c>
       <c r="AM5" t="n">
-        <v>3670.036</v>
+        <v>4807.108</v>
       </c>
       <c r="AN5" t="n">
-        <v>4782.08</v>
+        <v>6149.13</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="AP5" t="n">
-        <v>1955.187</v>
+        <v>1524.878</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.787</v>
+        <v>-0.618</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2261.332</v>
+        <v>2249.695</v>
       </c>
       <c r="AT5" t="n">
-        <v>7043.412</v>
+        <v>8398.825000000001</v>
       </c>
       <c r="AU5" t="n">
-        <v>335.255</v>
+        <v>-428.7</v>
       </c>
       <c r="AV5" t="n">
-        <v>233.918</v>
+        <v>289.34</v>
       </c>
       <c r="AW5" t="n">
-        <v>141.508</v>
+        <v>-22.106</v>
       </c>
       <c r="AX5" t="n">
-        <v>375.426</v>
+        <v>267.234</v>
       </c>
       <c r="AY5" t="n">
-        <v>-26.147</v>
+        <v>30.486</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.569</v>
+        <v>-17.052</v>
       </c>
       <c r="BB5" t="n">
-        <v>-114.2</v>
+        <v>49.428</v>
       </c>
       <c r="BC5" t="n">
-        <v>-159.36</v>
+        <v>-63.808</v>
       </c>
       <c r="BD5" t="n">
-        <v>551.321</v>
+        <v>-225.274</v>
       </c>
       <c r="BE5" t="n">
-        <v>-444.575</v>
+        <v>-540.539</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
@@ -1961,203 +1961,203 @@
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-1.58</v>
+        <v>-1.228</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-1.58</v>
+        <v>-1.228</v>
       </c>
       <c r="BK5" t="n">
-        <v>-10.774</v>
+        <v>-12.233</v>
       </c>
       <c r="BL5" t="n">
-        <v>-456.929</v>
+        <v>-554</v>
       </c>
       <c r="BM5" t="n">
-        <v>-117.439</v>
+        <v>1332.686</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-117.439</v>
+        <v>1332.686</v>
       </c>
       <c r="BP5" t="n">
-        <v>-5.438</v>
+        <v>365.153</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-5.438</v>
+        <v>365.153</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.709</v>
+        <v>-36.398</v>
       </c>
       <c r="BT5" t="n">
-        <v>-120.168</v>
+        <v>1661.441</v>
       </c>
       <c r="BU5" t="n">
-        <v>-25.776</v>
+        <v>882.167</v>
       </c>
       <c r="BV5" t="n">
-        <v>8.154</v>
+        <v>11.575</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.2459</v>
+        <v>1.7555</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.4644</v>
+        <v>0.5768</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.9814000000000001</v>
+        <v>1.5339</v>
       </c>
       <c r="CA5" t="n">
-        <v>74.0643</v>
+        <v>76.18810000000001</v>
       </c>
       <c r="CB5" t="n">
-        <v>13.0803</v>
+        <v>-28.0528</v>
       </c>
       <c r="CC5" t="n">
-        <v>13.0803</v>
+        <v>-28.0528</v>
       </c>
       <c r="CD5" t="n">
-        <v>19.187</v>
+        <v>-12.0674</v>
       </c>
       <c r="CE5" t="n">
-        <v>11.3933</v>
+        <v>-34.2639</v>
       </c>
       <c r="CF5" t="n">
-        <v>8.7522</v>
+        <v>-23.6848</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.5438</v>
+        <v>0.2155</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>40.398</v>
+        <v>9.506399999999999</v>
       </c>
       <c r="CJ5" t="n">
-        <v>9.0351</v>
+        <v>38.3951</v>
       </c>
       <c r="CK5" t="n">
-        <v>14.8256</v>
+        <v>-19.0559</v>
       </c>
       <c r="CL5" t="n">
-        <v>14.8256</v>
+        <v>-19.0559</v>
       </c>
       <c r="CM5" t="n">
-        <v>4.7598</v>
+        <v>-5.1043</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.9411</v>
+        <v>-8.063800000000001</v>
       </c>
       <c r="CO5" t="n">
-        <v>33.0339</v>
+        <v>23.0289</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.6405</v>
+        <v>-10.7015</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.4592</v>
+        <v>-10.5993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323.034</v>
+        <v>3830.536</v>
       </c>
       <c r="C6" t="n">
-        <v>939.324</v>
+        <v>993.478</v>
       </c>
       <c r="D6" t="n">
-        <v>2383.71</v>
+        <v>2837.058</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1200.391</v>
+        <v>1418.639</v>
       </c>
       <c r="G6" t="n">
-        <v>-478.037</v>
+        <v>-509.499</v>
       </c>
       <c r="H6" t="n">
-        <v>2032.796</v>
+        <v>2336.011</v>
       </c>
       <c r="I6" t="n">
-        <v>350.914</v>
+        <v>501.047</v>
       </c>
       <c r="J6" t="n">
-        <v>-145.938</v>
+        <v>-64.621</v>
       </c>
       <c r="K6" t="n">
-        <v>204.976</v>
+        <v>436.426</v>
       </c>
       <c r="L6" t="n">
-        <v>49.227</v>
+        <v>101.171</v>
       </c>
       <c r="M6" t="n">
-        <v>155.749</v>
+        <v>335.255</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>155.749</v>
+        <v>335.255</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.749</v>
+        <v>335.255</v>
       </c>
       <c r="R6" t="n">
-        <v>536.46</v>
+        <v>734.965</v>
       </c>
       <c r="S6" t="n">
-        <v>350.914</v>
+        <v>501.047</v>
       </c>
       <c r="T6" t="n">
         <v>68</v>
       </c>
       <c r="U6" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V6" t="n">
-        <v>2.28</v>
+        <v>4.9</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>4.89</v>
       </c>
       <c r="X6" t="n">
-        <v>1107.522</v>
+        <v>1084.278</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.66</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.383</v>
+        <v>103.439</v>
       </c>
       <c r="AB6" t="n">
-        <v>106.901</v>
+        <v>102.906</v>
       </c>
       <c r="AC6" t="n">
-        <v>1345.466</v>
+        <v>1385.443</v>
       </c>
       <c r="AD6" t="n">
-        <v>3116.012</v>
+        <v>3530.302</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -2166,79 +2166,79 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>454.969</v>
+        <v>396.509</v>
       </c>
       <c r="AH6" t="n">
-        <v>3819.991</v>
+        <v>5657.969</v>
       </c>
       <c r="AI6" t="n">
-        <v>5165.457</v>
+        <v>7043.412</v>
       </c>
       <c r="AJ6" t="n">
-        <v>834.535</v>
+        <v>1112.044</v>
       </c>
       <c r="AK6" t="n">
-        <v>2024.774</v>
+        <v>1960.453</v>
       </c>
       <c r="AL6" t="n">
-        <v>22.503</v>
+        <v>22.277</v>
       </c>
       <c r="AM6" t="n">
-        <v>2402.418</v>
+        <v>3670.036</v>
       </c>
       <c r="AN6" t="n">
-        <v>3236.953</v>
+        <v>4782.08</v>
       </c>
       <c r="AO6" t="n">
         <v>0.007</v>
       </c>
       <c r="AP6" t="n">
-        <v>1625.481</v>
+        <v>1955.187</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-1.193</v>
+        <v>-0.787</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1928.504</v>
+        <v>2261.332</v>
       </c>
       <c r="AT6" t="n">
-        <v>5165.457</v>
+        <v>7043.412</v>
       </c>
       <c r="AU6" t="n">
-        <v>155.749</v>
+        <v>335.255</v>
       </c>
       <c r="AV6" t="n">
-        <v>185.546</v>
+        <v>233.918</v>
       </c>
       <c r="AW6" t="n">
-        <v>157.565</v>
+        <v>141.508</v>
       </c>
       <c r="AX6" t="n">
-        <v>343.111</v>
+        <v>375.426</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.674</v>
+        <v>-26.147</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>15.317</v>
+        <v>0.569</v>
       </c>
       <c r="BB6" t="n">
-        <v>-79.232</v>
+        <v>-114.2</v>
       </c>
       <c r="BC6" t="n">
-        <v>7.603</v>
+        <v>-159.36</v>
       </c>
       <c r="BD6" t="n">
-        <v>506.463</v>
+        <v>551.321</v>
       </c>
       <c r="BE6" t="n">
-        <v>-773.496</v>
+        <v>-444.575</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -2250,203 +2250,203 @@
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-1.483</v>
+        <v>-1.58</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-1.483</v>
+        <v>-1.58</v>
       </c>
       <c r="BK6" t="n">
-        <v>-8.728999999999999</v>
+        <v>-10.774</v>
       </c>
       <c r="BL6" t="n">
-        <v>-783.708</v>
+        <v>-456.929</v>
       </c>
       <c r="BM6" t="n">
-        <v>489.104</v>
+        <v>-117.439</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>489.104</v>
+        <v>-117.439</v>
       </c>
       <c r="BP6" t="n">
-        <v>-1.111</v>
+        <v>-5.438</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-1.111</v>
+        <v>-5.438</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-6.864</v>
+        <v>2.709</v>
       </c>
       <c r="BT6" t="n">
-        <v>481.129</v>
+        <v>-120.168</v>
       </c>
       <c r="BU6" t="n">
-        <v>203.884</v>
+        <v>-25.776</v>
       </c>
       <c r="BV6" t="n">
-        <v>11.021</v>
+        <v>8.154</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.6122</v>
+        <v>1.2459</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.5122</v>
+        <v>0.4644</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.1347</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="CA6" t="n">
-        <v>71.7329</v>
+        <v>74.0643</v>
       </c>
       <c r="CB6" t="n">
-        <v>10.56</v>
+        <v>13.0803</v>
       </c>
       <c r="CC6" t="n">
-        <v>10.56</v>
+        <v>13.0803</v>
       </c>
       <c r="CD6" t="n">
-        <v>16.1437</v>
+        <v>19.187</v>
       </c>
       <c r="CE6" t="n">
-        <v>6.1683</v>
+        <v>11.3933</v>
       </c>
       <c r="CF6" t="n">
-        <v>4.687</v>
+        <v>8.7522</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.6433</v>
+        <v>0.5438</v>
       </c>
       <c r="CH6" t="n">
         <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>69.7238</v>
+        <v>40.398</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5.2349</v>
+        <v>9.0351</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.0762</v>
+        <v>14.8256</v>
       </c>
       <c r="CL6" t="n">
-        <v>8.0762</v>
+        <v>14.8256</v>
       </c>
       <c r="CM6" t="n">
-        <v>3.0152</v>
+        <v>4.7598</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.9397</v>
+        <v>7.9411</v>
       </c>
       <c r="CO6" t="n">
-        <v>28.2482</v>
+        <v>33.0339</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.2717</v>
+        <v>0.6405</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.1876</v>
+        <v>5.4592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2643.552</v>
+        <v>3323.034</v>
       </c>
       <c r="C7" t="n">
-        <v>615.581</v>
+        <v>939.324</v>
       </c>
       <c r="D7" t="n">
-        <v>2027.971</v>
+        <v>2383.71</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>932.525</v>
+        <v>1200.391</v>
       </c>
       <c r="G7" t="n">
-        <v>-364.617</v>
+        <v>-478.037</v>
       </c>
       <c r="H7" t="n">
-        <v>1643.146</v>
+        <v>2032.796</v>
       </c>
       <c r="I7" t="n">
-        <v>384.825</v>
+        <v>350.914</v>
       </c>
       <c r="J7" t="n">
-        <v>-35.139</v>
+        <v>-145.938</v>
       </c>
       <c r="K7" t="n">
-        <v>349.686</v>
+        <v>204.976</v>
       </c>
       <c r="L7" t="n">
-        <v>-65.836</v>
+        <v>49.227</v>
       </c>
       <c r="M7" t="n">
-        <v>415.522</v>
+        <v>155.749</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>415.522</v>
+        <v>155.749</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>415.522</v>
+        <v>155.749</v>
       </c>
       <c r="R7" t="n">
-        <v>532.921</v>
+        <v>536.46</v>
       </c>
       <c r="S7" t="n">
-        <v>384.825</v>
+        <v>350.914</v>
       </c>
       <c r="T7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>2.28</v>
       </c>
       <c r="W7" t="n">
-        <v>5.99</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
-        <v>901.7859999999999</v>
+        <v>1107.522</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.167</v>
+        <v>47.66</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.542</v>
+        <v>83.383</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.615</v>
+        <v>106.901</v>
       </c>
       <c r="AC7" t="n">
-        <v>1282.11</v>
+        <v>1345.466</v>
       </c>
       <c r="AD7" t="n">
-        <v>2238.468</v>
+        <v>3116.012</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -2455,79 +2455,79 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>525.307</v>
+        <v>454.969</v>
       </c>
       <c r="AH7" t="n">
-        <v>2863.69</v>
+        <v>3819.991</v>
       </c>
       <c r="AI7" t="n">
-        <v>4145.8</v>
+        <v>5165.457</v>
       </c>
       <c r="AJ7" t="n">
-        <v>664.333</v>
+        <v>834.535</v>
       </c>
       <c r="AK7" t="n">
-        <v>1387.498</v>
+        <v>2024.774</v>
       </c>
       <c r="AL7" t="n">
-        <v>22.581</v>
+        <v>22.503</v>
       </c>
       <c r="AM7" t="n">
-        <v>1718.893</v>
+        <v>2402.418</v>
       </c>
       <c r="AN7" t="n">
-        <v>2383.226</v>
+        <v>3236.953</v>
       </c>
       <c r="AO7" t="n">
         <v>0.007</v>
       </c>
       <c r="AP7" t="n">
-        <v>1469.732</v>
+        <v>1625.481</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-1.464</v>
+        <v>-1.193</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1762.574</v>
+        <v>1928.504</v>
       </c>
       <c r="AT7" t="n">
-        <v>4145.8</v>
+        <v>5165.457</v>
       </c>
       <c r="AU7" t="n">
-        <v>415.522</v>
+        <v>155.749</v>
       </c>
       <c r="AV7" t="n">
-        <v>148.096</v>
+        <v>185.546</v>
       </c>
       <c r="AW7" t="n">
-        <v>25.109</v>
+        <v>157.565</v>
       </c>
       <c r="AX7" t="n">
-        <v>173.205</v>
+        <v>343.111</v>
       </c>
       <c r="AY7" t="n">
-        <v>-8.134</v>
+        <v>1.674</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>6.03</v>
+        <v>15.317</v>
       </c>
       <c r="BB7" t="n">
-        <v>-91.539</v>
+        <v>-79.232</v>
       </c>
       <c r="BC7" t="n">
-        <v>-163.487</v>
+        <v>7.603</v>
       </c>
       <c r="BD7" t="n">
-        <v>425.24</v>
+        <v>506.463</v>
       </c>
       <c r="BE7" t="n">
-        <v>-778.3579999999999</v>
+        <v>-773.496</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
@@ -2539,203 +2539,203 @@
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-1.34</v>
+        <v>-1.483</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-1.34</v>
+        <v>-1.483</v>
       </c>
       <c r="BK7" t="n">
-        <v>-12.305</v>
+        <v>-8.728999999999999</v>
       </c>
       <c r="BL7" t="n">
-        <v>-792.003</v>
+        <v>-783.708</v>
       </c>
       <c r="BM7" t="n">
-        <v>526.987</v>
+        <v>489.104</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>526.987</v>
+        <v>489.104</v>
       </c>
       <c r="BP7" t="n">
-        <v>-46.535</v>
+        <v>-1.111</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-46.535</v>
+        <v>-1.111</v>
       </c>
       <c r="BR7" t="n">
         <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-13.74</v>
+        <v>-6.864</v>
       </c>
       <c r="BT7" t="n">
-        <v>466.712</v>
+        <v>481.129</v>
       </c>
       <c r="BU7" t="n">
-        <v>99.949</v>
+        <v>203.884</v>
       </c>
       <c r="BV7" t="n">
-        <v>8.522</v>
+        <v>11.021</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.9299</v>
+        <v>1.6122</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.4405</v>
+        <v>0.5122</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.8527</v>
+        <v>1.1347</v>
       </c>
       <c r="CA7" t="n">
-        <v>76.7139</v>
+        <v>71.7329</v>
       </c>
       <c r="CB7" t="n">
-        <v>14.5571</v>
+        <v>10.56</v>
       </c>
       <c r="CC7" t="n">
-        <v>14.5571</v>
+        <v>10.56</v>
       </c>
       <c r="CD7" t="n">
-        <v>20.1593</v>
+        <v>16.1437</v>
       </c>
       <c r="CE7" t="n">
-        <v>13.2279</v>
+        <v>6.1683</v>
       </c>
       <c r="CF7" t="n">
-        <v>15.7183</v>
+        <v>4.687</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.6375999999999999</v>
+        <v>0.6433</v>
       </c>
       <c r="CH7" t="n">
         <v>0</v>
       </c>
       <c r="CI7" t="n">
-        <v>22.1836</v>
+        <v>69.7238</v>
       </c>
       <c r="CJ7" t="n">
-        <v>16.4536</v>
+        <v>5.2349</v>
       </c>
       <c r="CK7" t="n">
-        <v>23.5747</v>
+        <v>8.0762</v>
       </c>
       <c r="CL7" t="n">
-        <v>23.5747</v>
+        <v>8.0762</v>
       </c>
       <c r="CM7" t="n">
-        <v>10.0227</v>
+        <v>3.0152</v>
       </c>
       <c r="CN7" t="n">
-        <v>13.1909</v>
+        <v>3.9397</v>
       </c>
       <c r="CO7" t="n">
-        <v>25.8453</v>
+        <v>28.2482</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.5615</v>
+        <v>1.2717</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-1.6669</v>
+        <v>1.1876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2320.021</v>
+        <v>2643.552</v>
       </c>
       <c r="C8" t="n">
-        <v>447.553</v>
+        <v>615.581</v>
       </c>
       <c r="D8" t="n">
-        <v>1872.468</v>
+        <v>2027.971</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>819.6319999999999</v>
+        <v>932.525</v>
       </c>
       <c r="G8" t="n">
-        <v>-308.567</v>
+        <v>-364.617</v>
       </c>
       <c r="H8" t="n">
-        <v>1431.01</v>
+        <v>1643.146</v>
       </c>
       <c r="I8" t="n">
-        <v>441.458</v>
+        <v>384.825</v>
       </c>
       <c r="J8" t="n">
-        <v>-24.201</v>
+        <v>-35.139</v>
       </c>
       <c r="K8" t="n">
-        <v>417.257</v>
+        <v>349.686</v>
       </c>
       <c r="L8" t="n">
-        <v>153.774</v>
+        <v>-65.836</v>
       </c>
       <c r="M8" t="n">
-        <v>263.483</v>
+        <v>415.522</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>263.483</v>
+        <v>415.522</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.483</v>
+        <v>415.522</v>
       </c>
       <c r="R8" t="n">
-        <v>548.326</v>
+        <v>532.921</v>
       </c>
       <c r="S8" t="n">
-        <v>441.458</v>
+        <v>384.825</v>
       </c>
       <c r="T8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V8" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>3.74</v>
+        <v>5.99</v>
       </c>
       <c r="X8" t="n">
-        <v>801.0549999999999</v>
+        <v>901.7859999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.136</v>
+        <v>119.167</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>46.619</v>
+        <v>85.542</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.035</v>
+        <v>175.615</v>
       </c>
       <c r="AC8" t="n">
-        <v>975.845</v>
+        <v>1282.11</v>
       </c>
       <c r="AD8" t="n">
-        <v>1465.222</v>
+        <v>2238.468</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -2744,79 +2744,79 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>635.326</v>
+        <v>525.307</v>
       </c>
       <c r="AH8" t="n">
-        <v>2176.082</v>
+        <v>2863.69</v>
       </c>
       <c r="AI8" t="n">
-        <v>3151.927</v>
+        <v>4145.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>531.95</v>
+        <v>664.333</v>
       </c>
       <c r="AK8" t="n">
-        <v>897.359</v>
+        <v>1387.498</v>
       </c>
       <c r="AL8" t="n">
-        <v>19.868</v>
+        <v>22.581</v>
       </c>
       <c r="AM8" t="n">
-        <v>1225.37</v>
+        <v>1718.893</v>
       </c>
       <c r="AN8" t="n">
-        <v>1757.32</v>
+        <v>2383.226</v>
       </c>
       <c r="AO8" t="n">
         <v>0.007</v>
       </c>
       <c r="AP8" t="n">
-        <v>1063.633</v>
+        <v>1469.732</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-1.345</v>
+        <v>-1.464</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1394.607</v>
+        <v>1762.574</v>
       </c>
       <c r="AT8" t="n">
-        <v>3151.927</v>
+        <v>4145.8</v>
       </c>
       <c r="AU8" t="n">
-        <v>263.483</v>
+        <v>415.522</v>
       </c>
       <c r="AV8" t="n">
-        <v>106.868</v>
+        <v>148.096</v>
       </c>
       <c r="AW8" t="n">
-        <v>134.254</v>
+        <v>25.109</v>
       </c>
       <c r="AX8" t="n">
-        <v>241.122</v>
+        <v>173.205</v>
       </c>
       <c r="AY8" t="n">
-        <v>-12.951</v>
+        <v>-8.134</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-6.823</v>
+        <v>6.03</v>
       </c>
       <c r="BB8" t="n">
-        <v>-85.34399999999999</v>
+        <v>-91.539</v>
       </c>
       <c r="BC8" t="n">
-        <v>-32.84</v>
+        <v>-163.487</v>
       </c>
       <c r="BD8" t="n">
-        <v>471.765</v>
+        <v>425.24</v>
       </c>
       <c r="BE8" t="n">
-        <v>-713.106</v>
+        <v>-778.3579999999999</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
@@ -2828,203 +2828,203 @@
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-100.416</v>
+        <v>-1.34</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-100.416</v>
+        <v>-1.34</v>
       </c>
       <c r="BK8" t="n">
-        <v>-10.834</v>
+        <v>-12.305</v>
       </c>
       <c r="BL8" t="n">
-        <v>-824.356</v>
+        <v>-792.003</v>
       </c>
       <c r="BM8" t="n">
-        <v>352.854</v>
+        <v>526.987</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>352.854</v>
+        <v>526.987</v>
       </c>
       <c r="BP8" t="n">
-        <v>-102.418</v>
+        <v>-46.535</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-102.418</v>
+        <v>-46.535</v>
       </c>
       <c r="BR8" t="n">
         <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0.577</v>
+        <v>-13.74</v>
       </c>
       <c r="BT8" t="n">
-        <v>249.859</v>
+        <v>466.712</v>
       </c>
       <c r="BU8" t="n">
-        <v>-102.732</v>
+        <v>99.949</v>
       </c>
       <c r="BV8" t="n">
-        <v>7.105</v>
+        <v>8.522</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.8345</v>
+        <v>1.9299</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.3915</v>
+        <v>0.4405</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.7039</v>
+        <v>0.8527</v>
       </c>
       <c r="CA8" t="n">
-        <v>80.70910000000001</v>
+        <v>76.7139</v>
       </c>
       <c r="CB8" t="n">
-        <v>19.0282</v>
+        <v>14.5571</v>
       </c>
       <c r="CC8" t="n">
-        <v>19.0282</v>
+        <v>14.5571</v>
       </c>
       <c r="CD8" t="n">
-        <v>23.6345</v>
+        <v>20.1593</v>
       </c>
       <c r="CE8" t="n">
-        <v>17.9851</v>
+        <v>13.2279</v>
       </c>
       <c r="CF8" t="n">
-        <v>11.3569</v>
+        <v>15.7183</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.7361</v>
+        <v>0.6375999999999999</v>
       </c>
       <c r="CH8" t="n">
         <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>56.3988</v>
+        <v>22.1836</v>
       </c>
       <c r="CJ8" t="n">
-        <v>6.4718</v>
+        <v>16.4536</v>
       </c>
       <c r="CK8" t="n">
-        <v>18.893</v>
+        <v>23.5747</v>
       </c>
       <c r="CL8" t="n">
-        <v>18.893</v>
+        <v>23.5747</v>
       </c>
       <c r="CM8" t="n">
-        <v>8.359400000000001</v>
+        <v>10.0227</v>
       </c>
       <c r="CN8" t="n">
-        <v>11.4959</v>
+        <v>13.1909</v>
       </c>
       <c r="CO8" t="n">
-        <v>20.1167</v>
+        <v>25.8453</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.1603</v>
+        <v>-0.5615</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.411</v>
+        <v>-1.6669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2141.463</v>
+        <v>2320.021</v>
       </c>
       <c r="C9" t="n">
-        <v>461.447</v>
+        <v>447.553</v>
       </c>
       <c r="D9" t="n">
-        <v>1680.016</v>
+        <v>1872.468</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>675.609</v>
+        <v>819.6319999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-209.846</v>
+        <v>-308.567</v>
       </c>
       <c r="H9" t="n">
-        <v>1170.894</v>
+        <v>1431.01</v>
       </c>
       <c r="I9" t="n">
-        <v>509.122</v>
+        <v>441.458</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.719</v>
+        <v>-24.201</v>
       </c>
       <c r="K9" t="n">
-        <v>502.403</v>
+        <v>417.257</v>
       </c>
       <c r="L9" t="n">
-        <v>185.183</v>
+        <v>153.774</v>
       </c>
       <c r="M9" t="n">
-        <v>317.22</v>
+        <v>263.483</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>317.22</v>
+        <v>263.483</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>317.22</v>
+        <v>263.483</v>
       </c>
       <c r="R9" t="n">
-        <v>584.1950000000001</v>
+        <v>548.326</v>
       </c>
       <c r="S9" t="n">
-        <v>509.122</v>
+        <v>441.458</v>
       </c>
       <c r="T9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" t="n">
-        <v>4.39</v>
+        <v>3.75</v>
       </c>
       <c r="W9" t="n">
-        <v>4.38</v>
+        <v>3.74</v>
       </c>
       <c r="X9" t="n">
-        <v>803.6319999999999</v>
+        <v>801.0549999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.266</v>
+        <v>41.136</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>48.749</v>
+        <v>46.619</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.693</v>
+        <v>87.035</v>
       </c>
       <c r="AC9" t="n">
-        <v>1026.34</v>
+        <v>975.845</v>
       </c>
       <c r="AD9" t="n">
-        <v>844.217</v>
+        <v>1465.222</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -3033,79 +3033,79 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>570.861</v>
+        <v>635.326</v>
       </c>
       <c r="AH9" t="n">
-        <v>1504.205</v>
+        <v>2176.082</v>
       </c>
       <c r="AI9" t="n">
-        <v>2530.545</v>
+        <v>3151.927</v>
       </c>
       <c r="AJ9" t="n">
-        <v>466.24</v>
+        <v>531.95</v>
       </c>
       <c r="AK9" t="n">
-        <v>596.693</v>
+        <v>897.359</v>
       </c>
       <c r="AL9" t="n">
-        <v>20.821</v>
+        <v>19.868</v>
       </c>
       <c r="AM9" t="n">
-        <v>838.995</v>
+        <v>1225.37</v>
       </c>
       <c r="AN9" t="n">
-        <v>1305.235</v>
+        <v>1757.32</v>
       </c>
       <c r="AO9" t="n">
         <v>0.007</v>
       </c>
       <c r="AP9" t="n">
-        <v>798.754</v>
+        <v>1063.633</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-1.546</v>
+        <v>-1.345</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1225.31</v>
+        <v>1394.607</v>
       </c>
       <c r="AT9" t="n">
-        <v>2530.545</v>
+        <v>3151.927</v>
       </c>
       <c r="AU9" t="n">
-        <v>317.22</v>
+        <v>263.483</v>
       </c>
       <c r="AV9" t="n">
-        <v>75.07299999999999</v>
+        <v>106.868</v>
       </c>
       <c r="AW9" t="n">
-        <v>168.786</v>
+        <v>134.254</v>
       </c>
       <c r="AX9" t="n">
-        <v>243.859</v>
+        <v>241.122</v>
       </c>
       <c r="AY9" t="n">
-        <v>-5.592</v>
+        <v>-12.951</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.706</v>
+        <v>-6.823</v>
       </c>
       <c r="BB9" t="n">
-        <v>-12.93</v>
+        <v>-85.34399999999999</v>
       </c>
       <c r="BC9" t="n">
-        <v>-88.09399999999999</v>
+        <v>-32.84</v>
       </c>
       <c r="BD9" t="n">
-        <v>472.985</v>
+        <v>471.765</v>
       </c>
       <c r="BE9" t="n">
-        <v>-691.123</v>
+        <v>-713.106</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -3117,203 +3117,203 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-100.416</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>-100.416</v>
       </c>
       <c r="BK9" t="n">
-        <v>-10.159</v>
+        <v>-10.834</v>
       </c>
       <c r="BL9" t="n">
-        <v>-701.282</v>
+        <v>-824.356</v>
       </c>
       <c r="BM9" t="n">
-        <v>510.416</v>
+        <v>352.854</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>510.416</v>
+        <v>352.854</v>
       </c>
       <c r="BP9" t="n">
-        <v>-112.229</v>
+        <v>-102.418</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-112.229</v>
+        <v>-102.418</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.958</v>
+        <v>-0.577</v>
       </c>
       <c r="BT9" t="n">
-        <v>399.145</v>
+        <v>249.859</v>
       </c>
       <c r="BU9" t="n">
-        <v>170.848</v>
+        <v>-102.732</v>
       </c>
       <c r="BV9" t="n">
-        <v>9.222</v>
+        <v>7.105</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.2013</v>
+        <v>1.8345</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.3275</v>
+        <v>0.3915</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.5275</v>
+        <v>0.7039</v>
       </c>
       <c r="CA9" t="n">
-        <v>78.45180000000001</v>
+        <v>80.70910000000001</v>
       </c>
       <c r="CB9" t="n">
-        <v>23.7745</v>
+        <v>19.0282</v>
       </c>
       <c r="CC9" t="n">
-        <v>23.7745</v>
+        <v>19.0282</v>
       </c>
       <c r="CD9" t="n">
-        <v>27.2802</v>
+        <v>23.6345</v>
       </c>
       <c r="CE9" t="n">
-        <v>23.4607</v>
+        <v>17.9851</v>
       </c>
       <c r="CF9" t="n">
-        <v>14.8132</v>
+        <v>11.3569</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.8462</v>
+        <v>0.7361</v>
       </c>
       <c r="CH9" t="n">
         <v>0</v>
       </c>
       <c r="CI9" t="n">
-        <v>75.7611</v>
+        <v>56.3988</v>
       </c>
       <c r="CJ9" t="n">
-        <v>4.8178</v>
+        <v>6.4718</v>
       </c>
       <c r="CK9" t="n">
-        <v>25.889</v>
+        <v>18.893</v>
       </c>
       <c r="CL9" t="n">
-        <v>25.889</v>
+        <v>18.893</v>
       </c>
       <c r="CM9" t="n">
-        <v>12.5356</v>
+        <v>8.359400000000001</v>
       </c>
       <c r="CN9" t="n">
-        <v>17.4105</v>
+        <v>11.4959</v>
       </c>
       <c r="CO9" t="n">
-        <v>17.1271</v>
+        <v>20.1167</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.9583</v>
+        <v>0.1603</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-2.4588</v>
+        <v>-0.411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-12-31</t>
+          <t>2015-12-31</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1931.58</v>
+        <v>2141.463</v>
       </c>
       <c r="C10" t="n">
-        <v>612.909</v>
+        <v>461.447</v>
       </c>
       <c r="D10" t="n">
-        <v>1318.671</v>
+        <v>1680.016</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>567.303</v>
+        <v>675.609</v>
       </c>
       <c r="G10" t="n">
-        <v>-153.307</v>
+        <v>-209.846</v>
       </c>
       <c r="H10" t="n">
-        <v>963.408</v>
+        <v>1170.894</v>
       </c>
       <c r="I10" t="n">
-        <v>355.263</v>
+        <v>509.122</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.269</v>
+        <v>-6.719</v>
       </c>
       <c r="K10" t="n">
-        <v>352.994</v>
+        <v>502.403</v>
       </c>
       <c r="L10" t="n">
-        <v>127.53</v>
+        <v>185.183</v>
       </c>
       <c r="M10" t="n">
-        <v>225.464</v>
+        <v>317.22</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>225.464</v>
+        <v>317.22</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.464</v>
+        <v>317.22</v>
       </c>
       <c r="R10" t="n">
-        <v>402.049</v>
+        <v>584.1950000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>355.263</v>
+        <v>509.122</v>
       </c>
       <c r="T10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V10" t="n">
-        <v>3.1</v>
+        <v>4.39</v>
       </c>
       <c r="W10" t="n">
-        <v>3.08</v>
+        <v>4.38</v>
       </c>
       <c r="X10" t="n">
-        <v>632.784</v>
+        <v>803.6319999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.685</v>
+        <v>28.266</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>48.749</v>
       </c>
       <c r="AB10" t="n">
-        <v>66.029</v>
+        <v>145.693</v>
       </c>
       <c r="AC10" t="n">
-        <v>721.498</v>
+        <v>1026.34</v>
       </c>
       <c r="AD10" t="n">
-        <v>225.375</v>
+        <v>844.217</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -3322,79 +3322,79 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>522.772</v>
+        <v>570.861</v>
       </c>
       <c r="AH10" t="n">
-        <v>871.255</v>
+        <v>1504.205</v>
       </c>
       <c r="AI10" t="n">
-        <v>1592.753</v>
+        <v>2530.545</v>
       </c>
       <c r="AJ10" t="n">
-        <v>365.624</v>
+        <v>466.24</v>
       </c>
       <c r="AK10" t="n">
-        <v>135.232</v>
+        <v>596.693</v>
       </c>
       <c r="AL10" t="n">
-        <v>22.455</v>
+        <v>20.821</v>
       </c>
       <c r="AM10" t="n">
-        <v>224.054</v>
+        <v>838.995</v>
       </c>
       <c r="AN10" t="n">
-        <v>589.678</v>
+        <v>1305.235</v>
       </c>
       <c r="AO10" t="n">
         <v>0.007</v>
       </c>
       <c r="AP10" t="n">
-        <v>481.534</v>
+        <v>798.754</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.718</v>
+        <v>-1.546</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1003.075</v>
+        <v>1225.31</v>
       </c>
       <c r="AT10" t="n">
-        <v>1592.753</v>
+        <v>2530.545</v>
       </c>
       <c r="AU10" t="n">
-        <v>225.464</v>
+        <v>317.22</v>
       </c>
       <c r="AV10" t="n">
-        <v>46.786</v>
+        <v>75.07299999999999</v>
       </c>
       <c r="AW10" t="n">
-        <v>45.878</v>
+        <v>168.786</v>
       </c>
       <c r="AX10" t="n">
-        <v>92.664</v>
+        <v>243.859</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.606</v>
+        <v>-5.592</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-10.034</v>
+        <v>2.706</v>
       </c>
       <c r="BB10" t="n">
-        <v>-46.87</v>
+        <v>-12.93</v>
       </c>
       <c r="BC10" t="n">
-        <v>-56.298</v>
+        <v>-88.09399999999999</v>
       </c>
       <c r="BD10" t="n">
-        <v>261.83</v>
+        <v>472.985</v>
       </c>
       <c r="BE10" t="n">
-        <v>-302.371</v>
+        <v>-691.123</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -3412,164 +3412,164 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-1.318</v>
+        <v>-10.159</v>
       </c>
       <c r="BL10" t="n">
-        <v>-303.689</v>
+        <v>-701.282</v>
       </c>
       <c r="BM10" t="n">
-        <v>146.767</v>
+        <v>510.416</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>146.767</v>
+        <v>510.416</v>
       </c>
       <c r="BP10" t="n">
-        <v>-1.456</v>
+        <v>-112.229</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-1.456</v>
+        <v>-112.229</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-1.299</v>
+        <v>0.958</v>
       </c>
       <c r="BT10" t="n">
-        <v>144.012</v>
+        <v>399.145</v>
       </c>
       <c r="BU10" t="n">
-        <v>102.153</v>
+        <v>170.848</v>
       </c>
       <c r="BV10" t="n">
-        <v>8.797000000000001</v>
+        <v>9.222</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.9733</v>
+        <v>2.2013</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.1188</v>
+        <v>0.3275</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.1452</v>
+        <v>0.5275</v>
       </c>
       <c r="CA10" t="n">
-        <v>68.26900000000001</v>
+        <v>78.45180000000001</v>
       </c>
       <c r="CB10" t="n">
-        <v>18.3924</v>
+        <v>23.7745</v>
       </c>
       <c r="CC10" t="n">
-        <v>18.3924</v>
+        <v>23.7745</v>
       </c>
       <c r="CD10" t="n">
-        <v>20.8145</v>
+        <v>27.2802</v>
       </c>
       <c r="CE10" t="n">
-        <v>18.2749</v>
+        <v>23.4607</v>
       </c>
       <c r="CF10" t="n">
-        <v>11.6725</v>
+        <v>14.8132</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.2127</v>
+        <v>0.8462</v>
       </c>
       <c r="CH10" t="n">
         <v>0</v>
       </c>
       <c r="CI10" t="n">
-        <v>85.14790000000001</v>
+        <v>75.7611</v>
       </c>
       <c r="CJ10" t="n">
-        <v>4.2867</v>
+        <v>4.8178</v>
       </c>
       <c r="CK10" t="n">
-        <v>22.4773</v>
+        <v>25.889</v>
       </c>
       <c r="CL10" t="n">
-        <v>22.4773</v>
+        <v>25.889</v>
       </c>
       <c r="CM10" t="n">
-        <v>14.1556</v>
+        <v>12.5356</v>
       </c>
       <c r="CN10" t="n">
-        <v>19.807</v>
+        <v>17.4105</v>
       </c>
       <c r="CO10" t="n">
-        <v>13.7831</v>
+        <v>17.1271</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.8959</v>
+        <v>2.9583</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-1.9953</v>
+        <v>-2.4588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2014-12-31</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.385</v>
+        <v>1931.58</v>
       </c>
       <c r="C11" t="n">
-        <v>551.746</v>
+        <v>612.909</v>
       </c>
       <c r="D11" t="n">
-        <v>1102.639</v>
+        <v>1318.671</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>473.378</v>
+        <v>567.303</v>
       </c>
       <c r="G11" t="n">
-        <v>-145.285</v>
+        <v>-153.307</v>
       </c>
       <c r="H11" t="n">
-        <v>820.347</v>
+        <v>963.408</v>
       </c>
       <c r="I11" t="n">
-        <v>282.292</v>
+        <v>355.263</v>
       </c>
       <c r="J11" t="n">
-        <v>0.118</v>
+        <v>-2.269</v>
       </c>
       <c r="K11" t="n">
-        <v>282.41</v>
+        <v>352.994</v>
       </c>
       <c r="L11" t="n">
-        <v>105.492</v>
+        <v>127.53</v>
       </c>
       <c r="M11" t="n">
-        <v>176.918</v>
+        <v>225.464</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>176.918</v>
+        <v>225.464</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.918</v>
+        <v>225.464</v>
       </c>
       <c r="R11" t="n">
-        <v>313.681</v>
+        <v>402.049</v>
       </c>
       <c r="S11" t="n">
-        <v>282.292</v>
+        <v>355.263</v>
       </c>
       <c r="T11" t="n">
         <v>73</v>
@@ -3578,16 +3578,16 @@
         <v>73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
       <c r="X11" t="n">
-        <v>530.631</v>
+        <v>632.784</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.246</v>
+        <v>22.685</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>78.955</v>
+        <v>66.029</v>
       </c>
       <c r="AC11" t="n">
-        <v>649.075</v>
+        <v>721.498</v>
       </c>
       <c r="AD11" t="n">
-        <v>35.613</v>
+        <v>225.375</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -3611,79 +3611,79 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>370.789</v>
+        <v>522.772</v>
       </c>
       <c r="AH11" t="n">
-        <v>531.6900000000001</v>
+        <v>871.255</v>
       </c>
       <c r="AI11" t="n">
-        <v>1180.765</v>
+        <v>1592.753</v>
       </c>
       <c r="AJ11" t="n">
-        <v>335.993</v>
+        <v>365.624</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>135.232</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.739</v>
+        <v>22.455</v>
       </c>
       <c r="AM11" t="n">
-        <v>75.655</v>
+        <v>224.054</v>
       </c>
       <c r="AN11" t="n">
-        <v>411.648</v>
+        <v>589.678</v>
       </c>
       <c r="AO11" t="n">
         <v>0.007</v>
       </c>
       <c r="AP11" t="n">
-        <v>256.07</v>
+        <v>481.534</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0.718</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>769.117</v>
+        <v>1003.075</v>
       </c>
       <c r="AT11" t="n">
-        <v>1180.765</v>
+        <v>1592.753</v>
       </c>
       <c r="AU11" t="n">
-        <v>176.918</v>
+        <v>225.464</v>
       </c>
       <c r="AV11" t="n">
-        <v>31.389</v>
+        <v>46.786</v>
       </c>
       <c r="AW11" t="n">
-        <v>18.669</v>
+        <v>45.878</v>
       </c>
       <c r="AX11" t="n">
-        <v>50.058</v>
+        <v>92.664</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.461</v>
+        <v>0.606</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-1.674</v>
+        <v>-10.034</v>
       </c>
       <c r="BB11" t="n">
-        <v>-29.465</v>
+        <v>-46.87</v>
       </c>
       <c r="BC11" t="n">
-        <v>-31.6</v>
+        <v>-56.298</v>
       </c>
       <c r="BD11" t="n">
-        <v>195.376</v>
+        <v>261.83</v>
       </c>
       <c r="BE11" t="n">
-        <v>-90.09999999999999</v>
+        <v>-302.371</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
@@ -3701,182 +3701,182 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-1.318</v>
       </c>
       <c r="BL11" t="n">
-        <v>-90.09999999999999</v>
+        <v>-303.689</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>146.767</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>146.767</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.288</v>
+        <v>-1.456</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.288</v>
+        <v>-1.456</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>8.827</v>
+        <v>-1.299</v>
       </c>
       <c r="BT11" t="n">
-        <v>8.539</v>
+        <v>144.012</v>
       </c>
       <c r="BU11" t="n">
-        <v>113.815</v>
+        <v>102.153</v>
       </c>
       <c r="BV11" t="n">
-        <v>5.689</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.9318</v>
+        <v>1.9733</v>
       </c>
       <c r="BY11" t="n">
-        <v>0</v>
+        <v>0.1188</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.1452</v>
       </c>
       <c r="CA11" t="n">
-        <v>66.6495</v>
+        <v>68.26900000000001</v>
       </c>
       <c r="CB11" t="n">
-        <v>17.0633</v>
+        <v>18.3924</v>
       </c>
       <c r="CC11" t="n">
-        <v>17.0633</v>
+        <v>18.3924</v>
       </c>
       <c r="CD11" t="n">
-        <v>18.9606</v>
+        <v>20.8145</v>
       </c>
       <c r="CE11" t="n">
-        <v>17.0704</v>
+        <v>18.2749</v>
       </c>
       <c r="CF11" t="n">
-        <v>10.6939</v>
+        <v>11.6725</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.4011</v>
+        <v>1.2127</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>71.1686</v>
+        <v>85.14790000000001</v>
       </c>
       <c r="CJ11" t="n">
-        <v>5.1287</v>
+        <v>4.2867</v>
       </c>
       <c r="CK11" t="n">
-        <v>23.0027</v>
+        <v>22.4773</v>
       </c>
       <c r="CL11" t="n">
-        <v>23.0027</v>
+        <v>22.4773</v>
       </c>
       <c r="CM11" t="n">
-        <v>14.9833</v>
+        <v>14.1556</v>
       </c>
       <c r="CN11" t="n">
-        <v>23.0027</v>
+        <v>19.807</v>
       </c>
       <c r="CO11" t="n">
-        <v>10.5836</v>
+        <v>13.7831</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.111</v>
+        <v>0.8959</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.378</v>
+        <v>-1.9953</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012-12-31</t>
+          <t>2013-12-31</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1318.388</v>
+        <v>1654.385</v>
       </c>
       <c r="C12" t="n">
-        <v>471.763</v>
+        <v>551.746</v>
       </c>
       <c r="D12" t="n">
-        <v>846.625</v>
+        <v>1102.639</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>393.415</v>
+        <v>473.378</v>
       </c>
       <c r="G12" t="n">
-        <v>-120.392</v>
+        <v>-145.285</v>
       </c>
       <c r="H12" t="n">
-        <v>672.635</v>
+        <v>820.347</v>
       </c>
       <c r="I12" t="n">
-        <v>173.99</v>
+        <v>282.292</v>
       </c>
       <c r="J12" t="n">
-        <v>0.594</v>
+        <v>0.118</v>
       </c>
       <c r="K12" t="n">
-        <v>174.584</v>
+        <v>282.41</v>
       </c>
       <c r="L12" t="n">
-        <v>66.124</v>
+        <v>105.492</v>
       </c>
       <c r="M12" t="n">
-        <v>108.46</v>
+        <v>176.918</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>108.46</v>
+        <v>176.918</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.46</v>
+        <v>176.918</v>
       </c>
       <c r="R12" t="n">
-        <v>188.416</v>
+        <v>313.681</v>
       </c>
       <c r="S12" t="n">
-        <v>173.99</v>
+        <v>282.292</v>
       </c>
       <c r="T12" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="n">
         <v>73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.49</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>416.816</v>
+        <v>530.631</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.74</v>
+        <v>23.246</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -3885,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.20999999999999</v>
+        <v>78.955</v>
       </c>
       <c r="AC12" t="n">
-        <v>547.357</v>
+        <v>649.075</v>
       </c>
       <c r="AD12" t="n">
-        <v>28.403</v>
+        <v>35.613</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -3900,34 +3900,34 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>263.591</v>
+        <v>370.789</v>
       </c>
       <c r="AH12" t="n">
-        <v>372.527</v>
+        <v>531.6900000000001</v>
       </c>
       <c r="AI12" t="n">
-        <v>919.884</v>
+        <v>1180.765</v>
       </c>
       <c r="AJ12" t="n">
-        <v>276.894</v>
+        <v>335.993</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>27.239</v>
+        <v>26.739</v>
       </c>
       <c r="AM12" t="n">
-        <v>60.455</v>
+        <v>75.655</v>
       </c>
       <c r="AN12" t="n">
-        <v>337.349</v>
+        <v>411.648</v>
       </c>
       <c r="AO12" t="n">
         <v>0.007</v>
       </c>
       <c r="AP12" t="n">
-        <v>79.152</v>
+        <v>256.07</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3936,43 +3936,43 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>582.535</v>
+        <v>769.117</v>
       </c>
       <c r="AT12" t="n">
-        <v>919.884</v>
+        <v>1180.765</v>
       </c>
       <c r="AU12" t="n">
-        <v>108.46</v>
+        <v>176.918</v>
       </c>
       <c r="AV12" t="n">
-        <v>14.426</v>
+        <v>31.389</v>
       </c>
       <c r="AW12" t="n">
-        <v>24.252</v>
+        <v>18.669</v>
       </c>
       <c r="AX12" t="n">
-        <v>38.678</v>
+        <v>50.058</v>
       </c>
       <c r="AY12" t="n">
-        <v>-7.393</v>
+        <v>-0.461</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>8.452</v>
+        <v>-1.674</v>
       </c>
       <c r="BB12" t="n">
-        <v>-34.566</v>
+        <v>-29.465</v>
       </c>
       <c r="BC12" t="n">
-        <v>-33.507</v>
+        <v>-31.6</v>
       </c>
       <c r="BD12" t="n">
-        <v>113.631</v>
+        <v>195.376</v>
       </c>
       <c r="BE12" t="n">
-        <v>-36.383</v>
+        <v>-90.09999999999999</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
@@ -3984,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>9.06</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>9.06</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-27.323</v>
+        <v>-90.09999999999999</v>
       </c>
       <c r="BM12" t="n">
         <v>0</v>
@@ -4005,31 +4005,31 @@
         <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.553</v>
+        <v>-0.288</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.553</v>
+        <v>-0.288</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-12.267</v>
+        <v>8.827</v>
       </c>
       <c r="BT12" t="n">
-        <v>-12.82</v>
+        <v>8.539</v>
       </c>
       <c r="BU12" t="n">
-        <v>73.488</v>
+        <v>113.815</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.327</v>
+        <v>5.689</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.9768</v>
+        <v>1.9318</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
@@ -4038,134 +4038,134 @@
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>64.2167</v>
+        <v>66.6495</v>
       </c>
       <c r="CB12" t="n">
-        <v>13.1972</v>
+        <v>17.0633</v>
       </c>
       <c r="CC12" t="n">
-        <v>13.1972</v>
+        <v>17.0633</v>
       </c>
       <c r="CD12" t="n">
-        <v>14.2914</v>
+        <v>18.9606</v>
       </c>
       <c r="CE12" t="n">
-        <v>13.2422</v>
+        <v>17.0704</v>
       </c>
       <c r="CF12" t="n">
-        <v>8.226699999999999</v>
+        <v>10.6939</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.4332</v>
+        <v>1.4011</v>
       </c>
       <c r="CH12" t="n">
         <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>57.9766</v>
+        <v>71.1686</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6.2956</v>
+        <v>5.1287</v>
       </c>
       <c r="CK12" t="n">
-        <v>18.6186</v>
+        <v>23.0027</v>
       </c>
       <c r="CL12" t="n">
-        <v>18.6186</v>
+        <v>23.0027</v>
       </c>
       <c r="CM12" t="n">
-        <v>11.7906</v>
+        <v>14.9833</v>
       </c>
       <c r="CN12" t="n">
-        <v>18.6186</v>
+        <v>23.0027</v>
       </c>
       <c r="CO12" t="n">
-        <v>8.0382</v>
+        <v>10.5836</v>
       </c>
       <c r="CP12" t="n">
-        <v>-1.6337</v>
+        <v>1.111</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.8788</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011-12-31</t>
+          <t>2012-12-31</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1071.186</v>
+        <v>1318.388</v>
       </c>
       <c r="C13" t="n">
-        <v>388.046</v>
+        <v>471.763</v>
       </c>
       <c r="D13" t="n">
-        <v>683.14</v>
+        <v>846.625</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>319.902</v>
+        <v>393.415</v>
       </c>
       <c r="G13" t="n">
-        <v>-94.611</v>
+        <v>-120.392</v>
       </c>
       <c r="H13" t="n">
-        <v>538.758</v>
+        <v>672.635</v>
       </c>
       <c r="I13" t="n">
-        <v>144.382</v>
+        <v>173.99</v>
       </c>
       <c r="J13" t="n">
-        <v>-21.551</v>
+        <v>0.594</v>
       </c>
       <c r="K13" t="n">
-        <v>122.831</v>
+        <v>174.584</v>
       </c>
       <c r="L13" t="n">
-        <v>46.383</v>
+        <v>66.124</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44799999999999</v>
+        <v>108.46</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>76.44799999999999</v>
+        <v>108.46</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.44799999999999</v>
+        <v>108.46</v>
       </c>
       <c r="R13" t="n">
-        <v>151.095</v>
+        <v>188.416</v>
       </c>
       <c r="S13" t="n">
-        <v>144.382</v>
+        <v>173.99</v>
       </c>
       <c r="T13" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="U13" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="X13" t="n">
-        <v>343.328</v>
+        <v>416.816</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.425</v>
+        <v>22.74</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -4174,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>63.217</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>442.708</v>
+        <v>547.357</v>
       </c>
       <c r="AD13" t="n">
-        <v>23.21</v>
+        <v>28.403</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -4189,34 +4189,34 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>279.895</v>
+        <v>263.591</v>
       </c>
       <c r="AH13" t="n">
-        <v>303.105</v>
+        <v>372.527</v>
       </c>
       <c r="AI13" t="n">
-        <v>745.813</v>
+        <v>919.884</v>
       </c>
       <c r="AJ13" t="n">
-        <v>227.064</v>
+        <v>276.894</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>39.935</v>
+        <v>27.239</v>
       </c>
       <c r="AM13" t="n">
-        <v>52.043</v>
+        <v>60.455</v>
       </c>
       <c r="AN13" t="n">
-        <v>279.107</v>
+        <v>337.349</v>
       </c>
       <c r="AO13" t="n">
         <v>0.007</v>
       </c>
       <c r="AP13" t="n">
-        <v>-29.308</v>
+        <v>79.152</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -4225,43 +4225,43 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>466.706</v>
+        <v>582.535</v>
       </c>
       <c r="AT13" t="n">
-        <v>745.813</v>
+        <v>919.884</v>
       </c>
       <c r="AU13" t="n">
-        <v>76.44799999999999</v>
+        <v>108.46</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.713</v>
+        <v>14.426</v>
       </c>
       <c r="AW13" t="n">
-        <v>67.181</v>
+        <v>24.252</v>
       </c>
       <c r="AX13" t="n">
-        <v>73.89400000000001</v>
+        <v>38.678</v>
       </c>
       <c r="AY13" t="n">
-        <v>-5.728</v>
+        <v>-7.393</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.457</v>
+        <v>8.452</v>
       </c>
       <c r="BB13" t="n">
-        <v>24.127</v>
+        <v>-34.566</v>
       </c>
       <c r="BC13" t="n">
-        <v>20.856</v>
+        <v>-33.507</v>
       </c>
       <c r="BD13" t="n">
-        <v>171.198</v>
+        <v>113.631</v>
       </c>
       <c r="BE13" t="n">
-        <v>-67.217</v>
+        <v>-36.383</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
@@ -4273,52 +4273,52 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-67.217</v>
+        <v>-27.323</v>
       </c>
       <c r="BM13" t="n">
-        <v>-18.221</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-18.221</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>170.365</v>
+        <v>-0.553</v>
       </c>
       <c r="BQ13" t="n">
-        <v>170.365</v>
+        <v>-0.553</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>4.489</v>
+        <v>-12.267</v>
       </c>
       <c r="BT13" t="n">
-        <v>156.633</v>
+        <v>-12.82</v>
       </c>
       <c r="BU13" t="n">
-        <v>260.614</v>
+        <v>73.488</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.53</v>
+        <v>4.327</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.9497</v>
+        <v>1.9768</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -4327,55 +4327,55 @@
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>63.7742</v>
+        <v>64.2167</v>
       </c>
       <c r="CB13" t="n">
-        <v>13.4787</v>
+        <v>13.1972</v>
       </c>
       <c r="CC13" t="n">
-        <v>13.4787</v>
+        <v>13.1972</v>
       </c>
       <c r="CD13" t="n">
-        <v>14.1054</v>
+        <v>14.2914</v>
       </c>
       <c r="CE13" t="n">
-        <v>11.4668</v>
+        <v>13.2422</v>
       </c>
       <c r="CF13" t="n">
-        <v>7.1368</v>
+        <v>8.226699999999999</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.4363</v>
+        <v>1.4332</v>
       </c>
       <c r="CH13" t="n">
         <v>0</v>
       </c>
       <c r="CI13" t="n">
-        <v>69.4448</v>
+        <v>57.9766</v>
       </c>
       <c r="CJ13" t="n">
-        <v>5.256</v>
+        <v>6.2956</v>
       </c>
       <c r="CK13" t="n">
-        <v>16.3803</v>
+        <v>18.6186</v>
       </c>
       <c r="CL13" t="n">
-        <v>16.3803</v>
+        <v>18.6186</v>
       </c>
       <c r="CM13" t="n">
-        <v>10.2503</v>
+        <v>11.7906</v>
       </c>
       <c r="CN13" t="n">
-        <v>16.3803</v>
+        <v>18.6186</v>
       </c>
       <c r="CO13" t="n">
-        <v>6.4354</v>
+        <v>8.0382</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.1862</v>
+        <v>-1.6337</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.0716</v>
+        <v>-0.8788</v>
       </c>
     </row>
   </sheetData>
